--- a/medicine/Mort/Décès_en_1981/Décès_en_1981.xlsx
+++ b/medicine/Mort/Décès_en_1981/Décès_en_1981.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1981</t>
+          <t>Décès_en_1981</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1981</t>
+          <t>Décès_en_1981</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,23 +540,62 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Date précise inconnue
-Marcello Avenali, peintre et aquarelliste italien (° 16 novembre 1912).
+          <t>Date précise inconnue</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Marcello Avenali, peintre et aquarelliste italien (° 16 novembre 1912).
 Alexandre Frenel, peintre franco-israélien (° 10 août 1899).
 Witold Januszewski, peintre et illustrateur polonais devenu français (° 2 février 1915).
 Emanuel Proweller, peintre français d'origine polonaise (° 1918).
 Arturo Rial, militaire argentin (° 12 avril 1909).
 Gabriël Verschraegen, organiste et compositeur belge (° 1919).
-Mica Todorović, peintre bosnienne (° 1900).
-Janvier
-5 janvier : Lanza del Vasto (Giuseppe Lanza di Trabia-Branciforte), écrivain français et partisan de la non-violence (° 29 septembre 1910).
+Mica Todorović, peintre bosnienne (° 1900).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1981</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1981</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>5 janvier : Lanza del Vasto (Giuseppe Lanza di Trabia-Branciforte), écrivain français et partisan de la non-violence (° 29 septembre 1910).
 6 janvier :
 Eugène-Marcel Mougin, peintre post-impressionniste français  (° 28 juin 1895).
 Antonio Suárez, coureur cycliste espagnol (° 20 mai 1932).
 8 janvier : Stymie Beard, acteur américain (° 1er janvier 1925).
 12 janvier : Marcel Gobillot, coureur cycliste français (° 3 janvier 1900).
 13 janvier : Walter Stewart Owen, homme politique canadien (° 26 janvier 1904).
-14 janvier : José Caeiro, joueur et entraîneur de football espagnol (° 14 février 1925 ou 17 février 1925)[1].
+14 janvier : José Caeiro, joueur et entraîneur de football espagnol (° 14 février 1925 ou 17 février 1925).
 16 janvier : Bernard Lee, acteur britannique (° 10 janvier 1908).
 23 janvier :
 Samuel Barber, compositeur américain (° 9 mars 1910).
@@ -553,9 +604,43 @@
 27 janvier :
 Léo Collard, homme politique belge (° 11 juillet 1902).
 Lucien Le Guern, peintre et religieux français (° 14 novembre 1914).
-29 janvier : Henri Mauduit, footballeur français (° 11 janvier 1933)[2].
-Février
-1er février : Aleksandra Beļcova, peintre russe et lettone (° 17 mars 1892).
+29 janvier : Henri Mauduit, footballeur français (° 11 janvier 1933).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1981</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1981</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1er février : Aleksandra Beļcova, peintre russe et lettone (° 17 mars 1892).
 5 février : Georges Salan, médecin, résistant et écrivain français (° 15 novembre 1901).
 9 février :
 Berten Dejonghe, coureur cycliste belge (° 14 février 1894).
@@ -573,9 +658,43 @@
 Muhtar Başoğlu, herpétologiste turc (° 6 avril 1913).
 Ron Grainer, compositeur australien (° 11 août 1922).
 23 février : Shep Fields, musicien américain (° 12 septembre 1910).
-26 février : Howard Hanson, compositeur, chef d'orchestre, théoricien et pédagogue américain (° 28 octobre 1896).
-Mars
-1er mars : Gazanfar Khaligov, peintre soviétique (° 12 décembre 1898).
+26 février : Howard Hanson, compositeur, chef d'orchestre, théoricien et pédagogue américain (° 28 octobre 1896).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1981</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1981</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1er mars : Gazanfar Khaligov, peintre soviétique (° 12 décembre 1898).
 2 mars : Krum Lekarski, cavalier bulgare (° 5 mai 1898).
 3 mars : William S. Burroughs Jr., écrivain américain (° 21 juillet 1947).
 4 mars : Torin Thatcher, acteur anglais (° 15 janvier 1905).
@@ -589,9 +708,43 @@
 18 mars : Luis Gamonal, footballeur espagnol (° 1er juin 1922).
 22 mars : Joseph G. Fucilla, linguiste, lexicographe et hispaniste américaine (° 14 décembre 1897).
 29 mars : Jean Gorin, peintre et sculpteur français (° 2 décembre 1899).
-? mars : Tiale Vuiyasawa, chef autochtone et homme politique fidjien (° vers 1896).
-Avril
-4 avril : Leo Kanner, pédopsychiatre austro-américain ayant défini le tableau de l'autisme infantile (° 13 juin 1894)..
+? mars : Tiale Vuiyasawa, chef autochtone et homme politique fidjien (° vers 1896).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1981</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1981</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>4 avril : Leo Kanner, pédopsychiatre austro-américain ayant défini le tableau de l'autisme infantile (° 13 juin 1894)..
 5 avril :
 Franco Gentilini, peintre italien (° 4 août 1909).
 Pinchus Krémègne, peintre et lithographe français d'origine russe (° 28 juillet 1890).
@@ -599,9 +752,43 @@
 14 avril : Victor Assis Brasil, saxophoniste brésilien (° 28 août 1945).
 15 avril : Valentine Prax, peintre française (° 23 juillet 1897).
 23 avril : Henryk Józewski, peintre et homme politique polonais (° 6 août 1892).
-26 avril : Jim Davis, acteur américain (° 26 août 1909).
-Mai
-3 mai : Anna Garcin-Mayade, peintre et résistante française (° 17 janvier 1897).
+26 avril : Jim Davis, acteur américain (° 26 août 1909).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1981</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1981</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>3 mai : Anna Garcin-Mayade, peintre et résistante française (° 17 janvier 1897).
 5 mai : Bobby Sands, républicain irlandais, membre de l’IRA provisoire (° 9 mars 1954).
 11 mai :
 Heinz-Herbert Karry, homme politique allemand (° 6 mars 1920).
@@ -614,9 +801,43 @@
 22 mai : Victoriano de La Serna, matador espagnol (° 1er septembre 1910).
 24 mai : Jaime Roldós Aguilera président de l'Équateur dans un crash aérien (° 5 novembre 1940)
 28 mai : Stefan Wyszyński, cardinal et primat de Pologne (° 3 août 1901).
-30 mai : Georges Manillier, peintre, architecte et professeur français (° 23 mai 1906).
-Juin
-2 juin : Pierre Mondan, peintre français (° 30 janvier 1900).
+30 mai : Georges Manillier, peintre, architecte et professeur français (° 23 mai 1906).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1981</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1981</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2 juin : Pierre Mondan, peintre français (° 30 janvier 1900).
 6 juin : Víctor Marchena, footballeur international péruvien (° 22 septembre 1914).
 8 juin :
 François Garnier, peintre et illustrateur français (° 27 avril 1914).
@@ -625,9 +846,43 @@
 11 juin : Adolfo Giuntoli, footballeur italien (° 14 mai 1913).
 12 juin : François Méheut, peintre et sculpteur français (° 23 mars 1905).
 23 juin : Jean Brunier, coureur cycliste français (° 9 octobre 1896).
-28 juin : Émile Ignat, coureur cycliste français (° 21 mars 1909).
-Juillet
-1er juillet :
+28 juin : Émile Ignat, coureur cycliste français (° 21 mars 1909).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1981</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1981</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1er juillet :
 Zdeněk Burian, peintre et illustrateur austro-hongrois puis tchécoslovaque (° 11 février 1905).
 Bernard Dimey, poète, parolier français (° 16 juillet 1931).
 2 juillet : Paul Schmiedlin, footballeur international suisse (° 2 juin 1897).
@@ -643,9 +898,43 @@
 27 juillet : William Wyler, cinéaste américain (° 1er juillet 1902).
 28 juillet : Claude Mallmann, peintre, illustrateur et graveur français (° 25 novembre 1915).
 29 juillet : Jean-Michel Caradec, auteur-compositeur-interprète français (° 20 septembre 1946).
-31 juillet : Omar Torrijos, officier et homme d'État panaméen (° 13 février 1929).
-Août
-1er août : Próspero Merino, footballeur péruvien (° 1943).
+31 juillet : Omar Torrijos, officier et homme d'État panaméen (° 13 février 1929).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1981</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1981</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1er août : Próspero Merino, footballeur péruvien (° 1943).
 7 août : Nelli Gorbatkova, joueuse soviétique de hockey sur gazon (° 25 juin 1958).
 10 août :
 Carlos Iturraspe, joueur et entraîneur de football espagnol (° 10 juin 1910).
@@ -659,9 +948,43 @@
 26 août : Maurice Ehlinger, peintre français (° 25 septembre 1896).
 28 août :
 Jean Bourdeillette, diplomate et poète français (° 24 octobre 1901).
-Furcie Tirolien, homme politique français (° 30 janvier 1886).
-Septembre
-1er septembre : Albert Speer, architecte et ministre de l’Allemagne nazie (° 19 mars 1905).
+Furcie Tirolien, homme politique français (° 30 janvier 1886).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1981</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1981</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1er septembre : Albert Speer, architecte et ministre de l’Allemagne nazie (° 19 mars 1905).
 3 septembre : Harold Houser, homme politique américain (° 31 mars 1897).
 4 septembre :
 Louis Delamare, ambassadeur de France, assassiné au Liban (° 12 novembre 1921).
@@ -680,13 +1003,47 @@
 29 septembre :
 André Planson, peintre français (° 10 avril 1898).
 Bill Shankly, joueur et entraîneur de football cossais (° 2 septembre 1913).
-30 septembre : Ezio Moioli, peintre italien (° 24 février 1902).
-Octobre
-1er octobre : Malcolm de Chazal, poète, écrivain et peintre mauricien (° 12 septembre 1902).
+30 septembre : Ezio Moioli, peintre italien (° 24 février 1902).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1981</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1981</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1er octobre : Malcolm de Chazal, poète, écrivain et peintre mauricien (° 12 septembre 1902).
 3 octobre : Tadeusz Kotarbiński, philosophe polonais (° 31 mars 1886).
 4 octobre :
 Hadj Abderrahmane, acteur algérien (° 12 octobre 1940).
-Guy Lassalette, footballeur français (° 14 juin 1944)[3].
+Guy Lassalette, footballeur français (° 14 juin 1944).
 5 octobre : B.D. Lakshman, dirigeant syndical et homme politique fidjien (° 1900).
 6 octobre : Anouar el-Sadate, président de l’Égypte (° 25 décembre 1918).
 9 octobre : Jean-Claude Fourneau, peintre français (° 28 mars 1907).
@@ -698,9 +1055,43 @@
 28 octobre : Glenn Anders, acteur de théâtre américain (° 1er septembre 1889).
 29 octobre :
 Georges Brassens, auteur-compositeur-interprète français (° 22 octobre 1921).
-Pierre Noël, peintre et illustrateur français (° 23 mai 1903).
-Novembre
-3 novembre : Jean Eustache, réalisateur et acteur français (° 30 novembre 1938).
+Pierre Noël, peintre et illustrateur français (° 23 mai 1903).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1981</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1981</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>3 novembre : Jean Eustache, réalisateur et acteur français (° 30 novembre 1938).
 7 novembre : Jean Legros, peintre abstrait géométrique et sculpteur français (° 19 février 1917).
 9 novembre : Frank Malina, ingénieur aéronautique américain (° 2 octobre 1912).
 10 novembre : Abel Gance, réalisateur français (° 25 octobre 1889).
@@ -715,17 +1106,51 @@
 26 novembre :
 Gianluigi Barni, médiéviste italien  (° 27 mai 1909).
 Max Euwe, joueur d’échecs néerlandais (° 20 mai 1901).
-Pierre Pibarot, joueur et entraîneur de football français (° 23 juillet 1916)[4].
+Pierre Pibarot, joueur et entraîneur de football français (° 23 juillet 1916).
 Regino Sáinz de la Maza, guitariste, compositeur de musique classique et enseignant universitaire espagnol (° 7 septembre 1896).
 29 novembre :
 Louis Fredericq, homme politique belge (° 25 novembre 1892).
 Dieudonné Smets, coureur cycliste belge (° 17 août 1901).
-Natalie Wood, actrice américaine (° 20 juillet 1938).
-Décembre
-5 décembre : Claude Domec, peintre français (° 3 juillet 1902).
+Natalie Wood, actrice américaine (° 20 juillet 1938).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1981</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1981</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>5 décembre : Claude Domec, peintre français (° 3 juillet 1902).
 8 décembre : Lucien Mathelin, peintre français (° 15 août 1905).
 11 décembre : Zoïa Fiodorova, actrice soviétique (° 21 décembre 1907).
-12 décembre : Pierre Bodin, Footballeur puis entraineur français (° 23 mars 1934)[5].
+12 décembre : Pierre Bodin, Footballeur puis entraineur français (° 23 mars 1934).
 17 décembre : Mehmet Shehu, général et homme politique albanais (° 10 janvier 1913).
 18 décembre : Joseph Flores,  homme politique américain (° 12 août 1900).
 24 décembre : René Barbier, compositeur belge (° 12 juillet 1890).
